--- a/Antonio-Feed/Wiring Harnesses/Feed/Dewar Communication Cable (Triple Cable)/List of materials (triple cable).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/Dewar Communication Cable (Triple Cable)/List of materials (triple cable).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahschoultz/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/Dewar Communication Cable (Triple Cable)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/Wiring Harness Directions/Dewar Communication Cable (Triple Cable)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92D2EA1-2178-6F46-8A91-7936E3AE40C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B574BFE-D48C-754A-9C2A-9928C0B3FCE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2680" windowWidth="22940" windowHeight="12280" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
+    <workbookView xWindow="12900" yWindow="1800" windowWidth="22940" windowHeight="12280" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="150">
   <si>
     <t>Material</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Order Number of Distributor</t>
   </si>
   <si>
-    <t>Shrink tube</t>
-  </si>
-  <si>
     <t>Metal braid</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Shielding</t>
   </si>
   <si>
-    <t>Magnent</t>
-  </si>
-  <si>
     <t>Yellow 28 awg</t>
   </si>
   <si>
@@ -375,9 +369,6 @@
     <t>623-2643480102</t>
   </si>
   <si>
-    <t>1/4 plastic braid</t>
-  </si>
-  <si>
     <t>TECHFLEX</t>
   </si>
   <si>
@@ -400,23 +391,109 @@
   </si>
   <si>
     <t>Measuring lengths of materials</t>
+  </si>
+  <si>
+    <t>41in</t>
+  </si>
+  <si>
+    <t>TE Connectivity / Raychem</t>
+  </si>
+  <si>
+    <t>650-TAT125316</t>
+  </si>
+  <si>
+    <t>TAT-125-3/16-0-STK</t>
+  </si>
+  <si>
+    <t>TAT-125-1/4-0-STK</t>
+  </si>
+  <si>
+    <t>650-TAT125014</t>
+  </si>
+  <si>
+    <t>1/4 in plastic braid</t>
+  </si>
+  <si>
+    <t>47in</t>
+  </si>
+  <si>
+    <t>61in</t>
+  </si>
+  <si>
+    <t>38.5 in</t>
+  </si>
+  <si>
+    <t>16mm adehsive shrink tube</t>
+  </si>
+  <si>
+    <t>Magnent covers</t>
+  </si>
+  <si>
+    <t>Magnents</t>
+  </si>
+  <si>
+    <t>4.5 in</t>
+  </si>
+  <si>
+    <t>650-ATUM-16/4-0-STK</t>
+  </si>
+  <si>
+    <t>ATUM-16/4-0-STK</t>
+  </si>
+  <si>
+    <t>12.7mm adhesive shrink tube</t>
+  </si>
+  <si>
+    <t>650-TAT125012</t>
+  </si>
+  <si>
+    <t>TAT-125-1/2-0-STK</t>
+  </si>
+  <si>
+    <t>1in</t>
+  </si>
+  <si>
+    <t>Triple wire grouping</t>
+  </si>
+  <si>
+    <t>1/8 metal braid</t>
+  </si>
+  <si>
+    <t>Glenair</t>
+  </si>
+  <si>
+    <t>100-001A125</t>
+  </si>
+  <si>
+    <t>654-100001A125</t>
+  </si>
+  <si>
+    <t>6.4mm in adehsive shrink tube</t>
+  </si>
+  <si>
+    <t>4.8mm adhesive shrink tube</t>
+  </si>
+  <si>
+    <t>99in</t>
+  </si>
+  <si>
+    <t>97in</t>
+  </si>
+  <si>
+    <t>5in</t>
+  </si>
+  <si>
+    <t>6.5in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -438,32 +515,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFC000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -489,29 +547,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -831,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BA75E2-A133-C247-9618-E9CB2A5F5006}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -850,16 +901,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -871,624 +922,749 @@
       <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="M9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L11" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2675023002</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2643480102</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>100</v>
-      </c>
-      <c r="L3" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M3" t="s">
+      <c r="E17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="D5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="D7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="D9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="D10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="16" t="s">
+      <c r="L17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="D11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="16"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>90</v>
-      </c>
-      <c r="L12" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="14">
-        <v>2675023002</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>110</v>
-      </c>
-      <c r="L13" t="s">
-        <v>60</v>
-      </c>
-      <c r="M13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="14">
-        <v>2643480102</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>112</v>
-      </c>
-      <c r="L14" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" t="s">
-        <v>64</v>
-      </c>
-      <c r="M15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G16" t="s">
-        <v>118</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="M17" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>65</v>
+        <v>144</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="M18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
+        <v>129</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="L19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1881367</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21">
+      <c r="F28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1881367</v>
-      </c>
-      <c r="F22" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="E29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="G29" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27">
-        <v>8</v>
-      </c>
-      <c r="D27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Antonio-Feed/Wiring Harnesses/Feed/Dewar Communication Cable (Triple Cable)/List of materials (triple cable).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/Dewar Communication Cable (Triple Cable)/List of materials (triple cable).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/Wiring Harness Directions/Dewar Communication Cable (Triple Cable)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/Dewar Communication Cable (Triple Cable)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B574BFE-D48C-754A-9C2A-9928C0B3FCE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02700308-BD68-D645-957E-109BB5906336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12900" yWindow="1800" windowWidth="22940" windowHeight="12280" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="149">
   <si>
     <t>Material</t>
   </si>
@@ -291,81 +291,21 @@
     <t>ALPHA WIRE</t>
   </si>
   <si>
-    <t>6710 BR005</t>
-  </si>
-  <si>
-    <t>602-6710-100-07</t>
-  </si>
-  <si>
-    <t>6712 BK005</t>
-  </si>
-  <si>
-    <t>602-6712-100-02</t>
-  </si>
-  <si>
     <t>6710 BL005</t>
   </si>
   <si>
     <t>602-6710-100-06</t>
   </si>
   <si>
-    <t>6710 OR005</t>
-  </si>
-  <si>
-    <t>602-6710-100-08</t>
-  </si>
-  <si>
-    <t>6710 RD005</t>
-  </si>
-  <si>
-    <t>602-6710-100-03</t>
-  </si>
-  <si>
-    <t>6710 BK005</t>
-  </si>
-  <si>
-    <t>602-6710-100-02</t>
-  </si>
-  <si>
-    <t>6710 YL005</t>
-  </si>
-  <si>
-    <t>602-6710-100-05</t>
-  </si>
-  <si>
-    <t>6710 GR005</t>
-  </si>
-  <si>
-    <t>602-6710-100-04</t>
-  </si>
-  <si>
-    <t>AMP - TE CONNECTIVITY</t>
-  </si>
-  <si>
     <t>207464-2</t>
   </si>
   <si>
-    <t>44F8694</t>
-  </si>
-  <si>
-    <t>16M3877</t>
-  </si>
-  <si>
-    <t>1757820-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75 Cable Core magnent </t>
-  </si>
-  <si>
     <t>Fair-Rite</t>
   </si>
   <si>
     <t>623-2675023002</t>
   </si>
   <si>
-    <t xml:space="preserve">43 Cable Core magnent </t>
-  </si>
-  <si>
     <t>623-2643480102</t>
   </si>
   <si>
@@ -484,6 +424,63 @@
   </si>
   <si>
     <t>6.5in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long 75 Cable Core magnent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short 43 Cable Core magnent </t>
+  </si>
+  <si>
+    <t>6710 GR001</t>
+  </si>
+  <si>
+    <t>602-6710-1000-04</t>
+  </si>
+  <si>
+    <t>6710 YL001</t>
+  </si>
+  <si>
+    <t>602-6710-1000-05</t>
+  </si>
+  <si>
+    <t>6710 OR001</t>
+  </si>
+  <si>
+    <t>602-6710-1000-08</t>
+  </si>
+  <si>
+    <t>6710 BR001</t>
+  </si>
+  <si>
+    <t>602-6710-1000-07</t>
+  </si>
+  <si>
+    <t>6710 RD001</t>
+  </si>
+  <si>
+    <t>602-6710-1000-03</t>
+  </si>
+  <si>
+    <t>6712 BK001</t>
+  </si>
+  <si>
+    <t>602-6712-1000-02</t>
+  </si>
+  <si>
+    <t>6710 BK001</t>
+  </si>
+  <si>
+    <t>602-6710-1000-02</t>
+  </si>
+  <si>
+    <t>205205-7</t>
+  </si>
+  <si>
+    <t>571-205205-7</t>
+  </si>
+  <si>
+    <t>571-2074642</t>
   </si>
 </sst>
 </file>
@@ -527,12 +524,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -561,7 +564,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -884,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BA75E2-A133-C247-9618-E9CB2A5F5006}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -937,19 +940,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>100</v>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>133</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>61</v>
@@ -964,25 +967,25 @@
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="M3" t="s">
         <v>98</v>
-      </c>
-      <c r="L3" t="s">
-        <v>117</v>
-      </c>
-      <c r="M3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -993,19 +996,19 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>92</v>
+      <c r="E4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>137</v>
       </c>
       <c r="L4" t="s">
         <v>54</v>
@@ -1020,19 +1023,19 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>90</v>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
       </c>
       <c r="L5" t="s">
         <v>73</v>
@@ -1049,19 +1052,19 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>86</v>
+      <c r="E6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>139</v>
       </c>
       <c r="L6" t="s">
         <v>75</v>
@@ -1076,25 +1079,25 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
         <v>84</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="M7" t="s">
         <v>94</v>
-      </c>
-      <c r="L7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1105,19 +1108,19 @@
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>92</v>
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>137</v>
       </c>
       <c r="L8" t="s">
         <v>64</v>
@@ -1132,19 +1135,19 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>98</v>
+      <c r="E9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>135</v>
       </c>
       <c r="L9" t="s">
         <v>55</v>
@@ -1159,19 +1162,19 @@
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>96</v>
+      <c r="E10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>145</v>
       </c>
       <c r="L10" t="s">
         <v>56</v>
@@ -1186,19 +1189,19 @@
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>86</v>
+      <c r="E11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>139</v>
       </c>
       <c r="L11" t="s">
         <v>57</v>
@@ -1213,19 +1216,19 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>88</v>
+      <c r="E12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>143</v>
       </c>
       <c r="L12" t="s">
         <v>59</v>
@@ -1236,16 +1239,16 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E13" s="6">
         <v>2675023002</v>
@@ -1254,7 +1257,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="L13" t="s">
         <v>58</v>
@@ -1265,16 +1268,16 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E14" s="6">
         <v>2643480102</v>
@@ -1283,7 +1286,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="L14" t="s">
         <v>79</v>
@@ -1294,25 +1297,25 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="L15" t="s">
         <v>62</v>
@@ -1323,25 +1326,25 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>60</v>
@@ -1352,25 +1355,25 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>81</v>
@@ -1381,25 +1384,25 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>63</v>
@@ -1410,28 +1413,28 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="L19" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="M19" t="s">
         <v>78</v>
@@ -1439,25 +1442,25 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1576,7 +1579,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1585,21 +1588,21 @@
       <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>104</v>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1608,17 +1611,17 @@
       <c r="C27" s="2">
         <v>1</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>103</v>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">

--- a/Antonio-Feed/Wiring Harnesses/Feed/Dewar Communication Cable (Triple Cable)/List of materials (triple cable).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/Dewar Communication Cable (Triple Cable)/List of materials (triple cable).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/Dewar Communication Cable (Triple Cable)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02700308-BD68-D645-957E-109BB5906336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EACEE3D-0274-EA4D-9827-4B6BC6888D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12900" yWindow="1800" windowWidth="22940" windowHeight="12280" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
@@ -887,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BA75E2-A133-C247-9618-E9CB2A5F5006}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,7 +1245,7 @@
         <v>111</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>88</v>
@@ -1274,7 +1274,7 @@
         <v>111</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>88</v>

--- a/Antonio-Feed/Wiring Harnesses/Feed/Dewar Communication Cable (Triple Cable)/List of materials (triple cable).xlsx
+++ b/Antonio-Feed/Wiring Harnesses/Feed/Dewar Communication Cable (Triple Cable)/List of materials (triple cable).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Antonio-Feed/Wiring Harnesses/Feed/Dewar Communication Cable (Triple Cable)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EACEE3D-0274-EA4D-9827-4B6BC6888D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247F8DD2-CA37-904D-B380-11ECAF6EE812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12900" yWindow="1800" windowWidth="22940" windowHeight="12280" xr2:uid="{1354B1EE-61B1-EA40-838A-2C3EED4877E0}"/>
   </bookViews>
@@ -408,9 +408,6 @@
     <t>654-100001A125</t>
   </si>
   <si>
-    <t>6.4mm in adehsive shrink tube</t>
-  </si>
-  <si>
     <t>4.8mm adhesive shrink tube</t>
   </si>
   <si>
@@ -481,6 +478,9 @@
   </si>
   <si>
     <t>571-2074642</t>
+  </si>
+  <si>
+    <t>6.4mm adehsive shrink tube</t>
   </si>
 </sst>
 </file>
@@ -524,18 +524,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -564,13 +558,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -887,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BA75E2-A133-C247-9618-E9CB2A5F5006}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,7 +930,7 @@
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -946,13 +940,13 @@
         <v>84</v>
       </c>
       <c r="E2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
         <v>132</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>133</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>61</v>
@@ -965,7 +959,7 @@
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="2" t="s">
         <v>99</v>
       </c>
@@ -973,13 +967,13 @@
         <v>84</v>
       </c>
       <c r="E3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
         <v>134</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>135</v>
       </c>
       <c r="L3" t="s">
         <v>97</v>
@@ -992,7 +986,7 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1002,13 +996,13 @@
         <v>84</v>
       </c>
       <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
         <v>136</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>137</v>
       </c>
       <c r="L4" t="s">
         <v>54</v>
@@ -1021,7 +1015,7 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>106</v>
       </c>
@@ -1048,7 +1042,7 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1058,13 +1052,13 @@
         <v>84</v>
       </c>
       <c r="E6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
         <v>138</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>139</v>
       </c>
       <c r="L6" t="s">
         <v>75</v>
@@ -1077,7 +1071,7 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="2" t="s">
         <v>106</v>
       </c>
@@ -1085,13 +1079,13 @@
         <v>84</v>
       </c>
       <c r="E7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
         <v>140</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>141</v>
       </c>
       <c r="L7" t="s">
         <v>93</v>
@@ -1104,7 +1098,7 @@
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1114,13 +1108,13 @@
         <v>84</v>
       </c>
       <c r="E8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
         <v>136</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
-        <v>137</v>
       </c>
       <c r="L8" t="s">
         <v>64</v>
@@ -1133,7 +1127,7 @@
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="2" t="s">
         <v>107</v>
       </c>
@@ -1141,13 +1135,13 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
         <v>134</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>135</v>
       </c>
       <c r="L9" t="s">
         <v>55</v>
@@ -1160,7 +1154,7 @@
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
         <v>107</v>
       </c>
@@ -1168,18 +1162,18 @@
         <v>84</v>
       </c>
       <c r="E10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
         <v>144</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>145</v>
       </c>
       <c r="L10" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="10" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1187,7 +1181,7 @@
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="2" t="s">
         <v>107</v>
       </c>
@@ -1195,18 +1189,18 @@
         <v>84</v>
       </c>
       <c r="E11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
         <v>138</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>139</v>
       </c>
       <c r="L11" t="s">
         <v>57</v>
       </c>
-      <c r="M11" s="11"/>
+      <c r="M11" s="10"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
@@ -1222,13 +1216,13 @@
         <v>84</v>
       </c>
       <c r="E12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
         <v>142</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>143</v>
       </c>
       <c r="L12" t="s">
         <v>59</v>
@@ -1239,7 +1233,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>111</v>
@@ -1268,7 +1262,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>111</v>
@@ -1303,7 +1297,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
         <v>121</v>
@@ -1332,7 +1326,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>91</v>
@@ -1355,13 +1349,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>100</v>
@@ -1384,13 +1378,13 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>100</v>
@@ -1579,7 +1573,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1592,17 +1586,17 @@
         <v>30</v>
       </c>
       <c r="E26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
         <v>146</v>
       </c>
-      <c r="F26" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1621,7 +1615,7 @@
         <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
